--- a/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.246687889832619</v>
+        <v>7.246687889832615</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.025164186399318</v>
+        <v>7.025164186399319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.117382129079159</v>
+        <v>7.11738212907916</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.145112832531869</v>
+        <v>7.145827088255685</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.950114077131369</v>
+        <v>6.94958563861211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.062439887083058</v>
+        <v>7.055821665009054</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.345832050967971</v>
+        <v>7.351060512696854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.100371970548427</v>
+        <v>7.098476662414552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.184875014467977</v>
+        <v>7.182135143123282</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>7.432230597022504</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.318110726682236</v>
+        <v>7.318110726682233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.375917593947907</v>
+        <v>7.375917593947908</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.373161455193681</v>
+        <v>7.375182605358038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.264450930390164</v>
+        <v>7.264193461409699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.337553080366301</v>
+        <v>7.339372498187789</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.495159732993218</v>
+        <v>7.492805673510193</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.370648094980355</v>
+        <v>7.372414068190492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.41413837593575</v>
+        <v>7.416632203879335</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>7.336310153761476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.339339293911435</v>
+        <v>7.339339293911437</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.248680953769383</v>
+        <v>7.248694974487398</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.259304632705482</v>
+        <v>7.255912275642426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.274226038883556</v>
+        <v>7.273960066742565</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.442853614922333</v>
+        <v>7.431295565379624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.428965992488191</v>
+        <v>7.419283369695846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.401104457842155</v>
+        <v>7.402259992352532</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.383282967643124</v>
+        <v>7.383282967643125</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.257904453985718</v>
+        <v>7.257904453985717</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.318870015221636</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.333488293731531</v>
+        <v>7.33918874792505</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.220215136412627</v>
+        <v>7.217651160866927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.290984680207517</v>
+        <v>7.28829898799157</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.426087408834923</v>
+        <v>7.433496329523711</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.295302557072949</v>
+        <v>7.295768295013792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.350402317319258</v>
+        <v>7.347204487299312</v>
       </c>
     </row>
     <row r="16">
